--- a/Palomas_Pesos.xlsx
+++ b/Palomas_Pesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Bird</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Corresponde</t>
+  </si>
+  <si>
+    <t>P875</t>
+  </si>
+  <si>
+    <t>June_12_2017</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +478,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +549,11 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -615,8 +624,11 @@
       <c r="X2">
         <v>482.4</v>
       </c>
+      <c r="Y2">
+        <v>481.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -687,8 +699,11 @@
       <c r="X3">
         <v>417</v>
       </c>
+      <c r="Y3">
+        <v>413.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -759,77 +774,64 @@
       <c r="X4">
         <v>406</v>
       </c>
+      <c r="Y4">
+        <v>402.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>351.2</v>
+        <v>472.5</v>
       </c>
       <c r="D5">
-        <v>347.6</v>
+        <v>459.6</v>
       </c>
       <c r="E5">
-        <v>346.8</v>
+        <v>463</v>
       </c>
       <c r="F5">
-        <v>343.5</v>
+        <v>449.8</v>
       </c>
       <c r="G5">
-        <v>337.6</v>
+        <v>476.7</v>
       </c>
       <c r="H5">
-        <v>336.4</v>
+        <v>450.9</v>
       </c>
       <c r="I5">
-        <v>342.3</v>
+        <v>454.9</v>
       </c>
       <c r="J5">
-        <v>342.4</v>
+        <v>464.7</v>
       </c>
       <c r="K5">
-        <v>339.8</v>
+        <v>454.8</v>
       </c>
       <c r="L5">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="M5">
-        <v>354.9</v>
+        <v>448.6</v>
       </c>
       <c r="N5">
-        <v>354.8</v>
+        <v>480.9</v>
       </c>
       <c r="O5">
-        <v>349.5</v>
+        <v>461.7</v>
       </c>
       <c r="P5">
-        <v>354</v>
+        <v>476.5</v>
       </c>
       <c r="Q5">
-        <v>354.1</v>
-      </c>
-      <c r="R5">
-        <v>351.5</v>
-      </c>
-      <c r="S5">
-        <v>356.8</v>
-      </c>
-      <c r="T5">
-        <v>360.7</v>
-      </c>
-      <c r="U5">
-        <v>352.5</v>
-      </c>
-      <c r="V5">
-        <v>354.5</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5">
-        <v>332.8</v>
+        <v>461.5</v>
+      </c>
+      <c r="Y5">
+        <v>473.6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -849,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -870,19 +872,19 @@
         <v>415.88571428571424</v>
       </c>
       <c r="G8">
-        <v>482.4</v>
+        <v>481.2</v>
       </c>
       <c r="H8">
         <f>(100*G8)/B8</f>
-        <v>92.794723825226725</v>
+        <v>92.563891178895318</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:B11" si="0">AVERAGE(B3:V3)</f>
+        <f t="shared" ref="B9:B10" si="0">AVERAGE(B3:V3)</f>
         <v>451.79999999999995</v>
       </c>
       <c r="C9">
@@ -898,14 +900,14 @@
         <v>361.44</v>
       </c>
       <c r="G9">
-        <v>417</v>
+        <v>413.1</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H11" si="4">(100*G9)/B9</f>
-        <v>92.297476759628168</v>
+        <v>91.434262948207177</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -926,47 +928,44 @@
         <v>372.83428571428573</v>
       </c>
       <c r="G10">
-        <v>406</v>
+        <v>402.3</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>87.116451583238813</v>
+        <v>86.322533182110774</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2">
-        <f>AVERAGE(C5:V5)</f>
-        <v>349.09500000000003</v>
+        <f>AVERAGE(C5:Q5)</f>
+        <v>463.07333333333332</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>314.18550000000005</v>
+        <v>416.76600000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>296.73075</v>
+        <v>393.61233333333331</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>279.27600000000001</v>
+        <v>370.45866666666666</v>
       </c>
       <c r="G11">
-        <v>332.8</v>
+        <v>473.6</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>95.33221615892522</v>
+        <v>102.27321806481335</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B11" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
